--- a/src/datagen/resources/data/frostedheart/data/nutrition.xlsx
+++ b/src/datagen/resources/data/frostedheart/data/nutrition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wyc/Development/FrostedHeart/src/datagen/resources/data/frostedheart/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7357E8C-8D1F-4403-BF0D-68ADBDDBC2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4C83CE-A72B-2D45-B4B3-2C5C57ECF7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{E04DA74A-E851-4A2B-AFF2-C4A335E1AD4C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="25820" windowHeight="15500" xr2:uid="{E04DA74A-E851-4A2B-AFF2-C4A335E1AD4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -673,7 +673,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -708,6 +708,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
@@ -775,7 +776,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1099,16 +1100,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9449E8F2-0FFB-4699-9EC1-364C1E3FECDC}">
   <dimension ref="A1:O195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P197" sqref="A196:P197"/>
+    <sheetView tabSelected="1" topLeftCell="A180" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G187" sqref="G187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.25" customWidth="1"/>
+    <col min="1" max="1" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>189</v>
       </c>
@@ -1152,7 +1153,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="4" t="s">
         <v>141</v>
       </c>
@@ -1202,7 +1203,7 @@
         <v>0.40923653438081475</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="4" t="s">
         <v>179</v>
       </c>
@@ -1252,7 +1253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="4" t="s">
         <v>38</v>
       </c>
@@ -1302,7 +1303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -1352,7 +1353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1402,7 +1403,7 @@
         <v>0.30692740078561104</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
         <v>55</v>
       </c>
@@ -1452,7 +1453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -1502,7 +1503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="4" t="s">
         <v>180</v>
       </c>
@@ -1552,7 +1553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="4" t="s">
         <v>119</v>
       </c>
@@ -1602,7 +1603,7 @@
         <v>0.89287971137632294</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>121</v>
       </c>
@@ -1652,7 +1653,7 @@
         <v>0.82176584189843038</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>118</v>
       </c>
@@ -1702,7 +1703,7 @@
         <v>1.4881328522938715</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -1752,7 +1753,7 @@
         <v>0.51154566797601841</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
         <v>181</v>
       </c>
@@ -1802,7 +1803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
         <v>49</v>
       </c>
@@ -1852,7 +1853,7 @@
         <v>0.5208464983028549</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="4" t="s">
         <v>128</v>
       </c>
@@ -1902,7 +1903,7 @@
         <v>0.81847306876162951</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -1952,7 +1953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" s="4" t="s">
         <v>137</v>
       </c>
@@ -2002,7 +2003,7 @@
         <v>0.37203321307346787</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
@@ -2052,7 +2053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
@@ -2102,7 +2103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
         <v>129</v>
       </c>
@@ -2152,7 +2153,7 @@
         <v>0.5208464983028549</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -2202,7 +2203,7 @@
         <v>0.59525314091754855</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -2252,7 +2253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
         <v>160</v>
       </c>
@@ -2302,7 +2303,7 @@
         <v>0.22598560652206837</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
@@ -2352,7 +2353,7 @@
         <v>0.71616393516642574</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
@@ -2402,7 +2403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15">
       <c r="A27" s="4" t="s">
         <v>21</v>
       </c>
@@ -2452,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15">
       <c r="A28" s="1" t="s">
         <v>158</v>
       </c>
@@ -2502,7 +2503,7 @@
         <v>0.33897840978310251</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
         <v>120</v>
       </c>
@@ -2552,7 +2553,7 @@
         <v>0.89287971137632294</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15">
       <c r="A30" s="1" t="s">
         <v>127</v>
       </c>
@@ -2602,7 +2603,7 @@
         <v>0.65477845500930354</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
@@ -2652,7 +2653,7 @@
         <v>0.6696597835322422</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15">
       <c r="A32" s="1" t="s">
         <v>182</v>
       </c>
@@ -2702,7 +2703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15">
       <c r="A33" s="1" t="s">
         <v>145</v>
       </c>
@@ -2752,7 +2753,7 @@
         <v>0.40923653438081475</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15">
       <c r="A34" s="1" t="s">
         <v>50</v>
       </c>
@@ -2802,7 +2803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15">
       <c r="A35" s="1" t="s">
         <v>26</v>
       </c>
@@ -2852,7 +2853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15">
       <c r="A36" s="1" t="s">
         <v>130</v>
       </c>
@@ -2902,7 +2903,7 @@
         <v>0.5208464983028549</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15">
       <c r="A37" s="1" t="s">
         <v>136</v>
       </c>
@@ -2952,7 +2953,7 @@
         <v>1.1231290722656246</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15">
       <c r="A38" s="1" t="s">
         <v>143</v>
       </c>
@@ -3002,7 +3003,7 @@
         <v>0.87354483398437477</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
         <v>142</v>
       </c>
@@ -3052,7 +3053,7 @@
         <v>0.99833695312499982</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
@@ -3102,7 +3103,7 @@
         <v>1.1504721786578025</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15">
       <c r="A41" s="1" t="s">
         <v>22</v>
       </c>
@@ -3152,7 +3153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15">
       <c r="A42" s="1" t="s">
         <v>57</v>
       </c>
@@ -3202,7 +3203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15">
       <c r="A43" s="1" t="s">
         <v>58</v>
       </c>
@@ -3252,7 +3253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15">
       <c r="A44" s="1" t="s">
         <v>46</v>
       </c>
@@ -3302,7 +3303,7 @@
         <v>0.32738922750465177</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
@@ -3352,7 +3353,7 @@
         <v>0.59525314091754855</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15">
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
@@ -3402,7 +3403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15">
       <c r="A47" s="1" t="s">
         <v>43</v>
       </c>
@@ -3452,7 +3453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -3502,7 +3503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15">
       <c r="A49" s="1" t="s">
         <v>15</v>
       </c>
@@ -3552,7 +3553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15">
       <c r="A50" s="1" t="s">
         <v>16</v>
       </c>
@@ -3602,7 +3603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15">
       <c r="A51" s="1" t="s">
         <v>27</v>
       </c>
@@ -3652,7 +3653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15">
       <c r="A52" s="4" t="s">
         <v>54</v>
       </c>
@@ -3702,7 +3703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15">
       <c r="A53" s="1" t="s">
         <v>183</v>
       </c>
@@ -3752,7 +3753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15">
       <c r="A54" s="1" t="s">
         <v>37</v>
       </c>
@@ -3802,7 +3803,7 @@
         <v>0.36831288094273323</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15">
       <c r="A55" s="1" t="s">
         <v>20</v>
       </c>
@@ -3852,7 +3853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15">
       <c r="A56" s="1" t="s">
         <v>144</v>
       </c>
@@ -3902,7 +3903,7 @@
         <v>0.59525314091754855</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15">
       <c r="A57" s="1" t="s">
         <v>68</v>
       </c>
@@ -3952,7 +3953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15">
       <c r="A58" s="1" t="s">
         <v>34</v>
       </c>
@@ -4002,7 +4003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15">
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
@@ -4052,7 +4053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15">
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
@@ -4102,7 +4103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15">
       <c r="A61" s="1" t="s">
         <v>148</v>
       </c>
@@ -4152,7 +4153,7 @@
         <v>0.5208464983028549</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15">
       <c r="A62" s="1" t="s">
         <v>24</v>
       </c>
@@ -4202,7 +4203,7 @@
         <v>0.89287971137632294</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15">
       <c r="A63" s="1" t="s">
         <v>23</v>
       </c>
@@ -4252,7 +4253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15">
       <c r="A64" s="1" t="s">
         <v>35</v>
       </c>
@@ -4302,7 +4303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15">
       <c r="A65" s="4" t="s">
         <v>2</v>
       </c>
@@ -4352,7 +4353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15">
       <c r="A66" s="1" t="s">
         <v>187</v>
       </c>
@@ -4402,7 +4403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15">
       <c r="A67" s="1" t="s">
         <v>188</v>
       </c>
@@ -4452,7 +4453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15">
       <c r="A68" s="7" t="s">
         <v>200</v>
       </c>
@@ -4502,7 +4503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15">
       <c r="A69" s="6" t="s">
         <v>198</v>
       </c>
@@ -4552,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15">
       <c r="A70" s="7" t="s">
         <v>199</v>
       </c>
@@ -4602,7 +4603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15">
       <c r="A71" s="1" t="s">
         <v>205</v>
       </c>
@@ -4652,7 +4653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15">
       <c r="A72" s="4" t="s">
         <v>1</v>
       </c>
@@ -4702,7 +4703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15">
       <c r="A73" s="4" t="s">
         <v>197</v>
       </c>
@@ -4752,7 +4753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15">
       <c r="A74" s="4" t="s">
         <v>65</v>
       </c>
@@ -4802,7 +4803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15">
       <c r="A75" s="4" t="s">
         <v>51</v>
       </c>
@@ -4852,7 +4853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15">
       <c r="A76" s="1" t="s">
         <v>61</v>
       </c>
@@ -4902,7 +4903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15">
       <c r="A77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4952,7 +4953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15">
       <c r="A78" s="1" t="s">
         <v>166</v>
       </c>
@@ -5002,7 +5003,7 @@
         <v>0.10230913359520369</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15">
       <c r="A79" s="1" t="s">
         <v>168</v>
       </c>
@@ -5052,7 +5053,7 @@
         <v>8.1847306876162942E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15">
       <c r="A80" s="1" t="s">
         <v>13</v>
       </c>
@@ -5102,7 +5103,7 @@
         <v>0.30692740078561104</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15">
       <c r="A81" s="4" t="s">
         <v>40</v>
       </c>
@@ -5152,7 +5153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15">
       <c r="A82" s="4" t="s">
         <v>11</v>
       </c>
@@ -5202,7 +5203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15">
       <c r="A83" s="4" t="s">
         <v>6</v>
       </c>
@@ -5252,7 +5253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15">
       <c r="A84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5302,7 +5303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15">
       <c r="A85" s="4" t="s">
         <v>74</v>
       </c>
@@ -5352,7 +5353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15">
       <c r="A86" s="1" t="s">
         <v>52</v>
       </c>
@@ -5402,7 +5403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15">
       <c r="A87" s="4" t="s">
         <v>75</v>
       </c>
@@ -5452,7 +5453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15">
       <c r="A88" s="4" t="s">
         <v>36</v>
       </c>
@@ -5502,7 +5503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15">
       <c r="A89" s="1" t="s">
         <v>76</v>
       </c>
@@ -5552,7 +5553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15">
       <c r="A90" s="1" t="s">
         <v>153</v>
       </c>
@@ -5602,7 +5603,7 @@
         <v>0.24652975256952908</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15">
       <c r="A91" s="1" t="s">
         <v>77</v>
       </c>
@@ -5652,7 +5653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15">
       <c r="A92" s="1" t="s">
         <v>78</v>
       </c>
@@ -5702,7 +5703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15">
       <c r="A93" s="1" t="s">
         <v>28</v>
       </c>
@@ -5752,7 +5753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15">
       <c r="A94" s="1" t="s">
         <v>79</v>
       </c>
@@ -5802,7 +5803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15">
       <c r="A95" s="1" t="s">
         <v>80</v>
       </c>
@@ -5852,7 +5853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15">
       <c r="A96" s="1" t="s">
         <v>169</v>
       </c>
@@ -5902,7 +5903,7 @@
         <v>0.11299280326103418</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15">
       <c r="A97" s="1" t="s">
         <v>3</v>
       </c>
@@ -5952,7 +5953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15">
       <c r="A98" s="1" t="s">
         <v>81</v>
       </c>
@@ -6002,7 +6003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15">
       <c r="A99" s="1" t="s">
         <v>82</v>
       </c>
@@ -6052,7 +6053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15">
       <c r="A100" s="1" t="s">
         <v>10</v>
       </c>
@@ -6102,7 +6103,7 @@
         <v>0.16369461375232588</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15">
       <c r="A101" s="1" t="s">
         <v>62</v>
       </c>
@@ -6152,7 +6153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15">
       <c r="A102" s="1" t="s">
         <v>161</v>
       </c>
@@ -6202,7 +6203,7 @@
         <v>0.16435316837968608</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15">
       <c r="A103" s="1" t="s">
         <v>53</v>
       </c>
@@ -6252,7 +6253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15">
       <c r="A104" s="1" t="s">
         <v>184</v>
       </c>
@@ -6302,7 +6303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15">
       <c r="A105" s="1" t="s">
         <v>162</v>
       </c>
@@ -6352,7 +6353,7 @@
         <v>0.22598560652206837</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15">
       <c r="A106" s="1" t="s">
         <v>124</v>
       </c>
@@ -6402,7 +6403,7 @@
         <v>0.59525314091754855</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15">
       <c r="A107" s="1" t="s">
         <v>132</v>
       </c>
@@ -6452,7 +6453,7 @@
         <v>0.44643985568816147</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15">
       <c r="A108" s="1" t="s">
         <v>138</v>
       </c>
@@ -6502,7 +6503,7 @@
         <v>0.37203321307346787</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15">
       <c r="A109" s="1" t="s">
         <v>133</v>
       </c>
@@ -6552,7 +6553,7 @@
         <v>0.44643985568816147</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15">
       <c r="A110" s="1" t="s">
         <v>125</v>
       </c>
@@ -6602,7 +6603,7 @@
         <v>0.59525314091754855</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15">
       <c r="A111" s="1" t="s">
         <v>139</v>
       </c>
@@ -6652,7 +6653,7 @@
         <v>0.51154566797601841</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15">
       <c r="A112" s="1" t="s">
         <v>134</v>
       </c>
@@ -6702,7 +6703,7 @@
         <v>0.44643985568816147</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15">
       <c r="A113" s="1" t="s">
         <v>7</v>
       </c>
@@ -6752,7 +6753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15">
       <c r="A114" s="1" t="s">
         <v>83</v>
       </c>
@@ -6802,7 +6803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15">
       <c r="A115" s="1" t="s">
         <v>84</v>
       </c>
@@ -6852,7 +6853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15">
       <c r="A116" s="1" t="s">
         <v>85</v>
       </c>
@@ -6902,7 +6903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15">
       <c r="A117" s="1" t="s">
         <v>86</v>
       </c>
@@ -6952,7 +6953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15">
       <c r="A118" s="1" t="s">
         <v>87</v>
       </c>
@@ -7002,7 +7003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15">
       <c r="A119" s="1" t="s">
         <v>70</v>
       </c>
@@ -7052,7 +7053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15">
       <c r="A120" s="1" t="s">
         <v>170</v>
       </c>
@@ -7102,7 +7103,7 @@
         <v>0.33897840978310251</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15">
       <c r="A121" s="1" t="s">
         <v>63</v>
       </c>
@@ -7152,7 +7153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15">
       <c r="A122" s="1" t="s">
         <v>167</v>
       </c>
@@ -7202,7 +7203,7 @@
         <v>0.10230913359520369</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15">
       <c r="A123" s="1" t="s">
         <v>48</v>
       </c>
@@ -7252,7 +7253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15">
       <c r="A124" s="1" t="s">
         <v>29</v>
       </c>
@@ -7302,7 +7303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15">
       <c r="A125" s="1" t="s">
         <v>41</v>
       </c>
@@ -7352,7 +7353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15">
       <c r="A126" s="1" t="s">
         <v>88</v>
       </c>
@@ -7402,7 +7403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15">
       <c r="A127" s="1" t="s">
         <v>171</v>
       </c>
@@ -7452,7 +7453,7 @@
         <v>0.11299280326103418</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15">
       <c r="A128" s="1" t="s">
         <v>89</v>
       </c>
@@ -7502,7 +7503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15">
       <c r="A129" s="1" t="s">
         <v>90</v>
       </c>
@@ -7552,7 +7553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15">
       <c r="A130" s="1" t="s">
         <v>91</v>
       </c>
@@ -7602,7 +7603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15">
       <c r="A131" s="1" t="s">
         <v>92</v>
       </c>
@@ -7652,7 +7653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15">
       <c r="A132" s="1" t="s">
         <v>93</v>
       </c>
@@ -7702,7 +7703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15">
       <c r="A133" s="4" t="s">
         <v>94</v>
       </c>
@@ -7752,7 +7753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15">
       <c r="A134" s="1" t="s">
         <v>95</v>
       </c>
@@ -7802,7 +7803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15">
       <c r="A135" s="1" t="s">
         <v>96</v>
       </c>
@@ -7852,7 +7853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15">
       <c r="A136" s="1" t="s">
         <v>172</v>
       </c>
@@ -7902,7 +7903,7 @@
         <v>9.0394242608827349E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15">
       <c r="A137" s="1" t="s">
         <v>30</v>
       </c>
@@ -7952,7 +7953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15">
       <c r="A138" s="1" t="s">
         <v>163</v>
       </c>
@@ -8002,7 +8003,7 @@
         <v>0.16435316837968608</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15">
       <c r="A139" s="1" t="s">
         <v>97</v>
       </c>
@@ -8052,7 +8053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15">
       <c r="A140" s="1" t="s">
         <v>98</v>
       </c>
@@ -8102,7 +8103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15">
       <c r="A141" s="4" t="s">
         <v>99</v>
       </c>
@@ -8152,7 +8153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15">
       <c r="A142" s="4" t="s">
         <v>100</v>
       </c>
@@ -8202,7 +8203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15">
       <c r="A143" s="1" t="s">
         <v>101</v>
       </c>
@@ -8252,7 +8253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15">
       <c r="A144" s="4" t="s">
         <v>102</v>
       </c>
@@ -8302,7 +8303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15">
       <c r="A145" s="4" t="s">
         <v>66</v>
       </c>
@@ -8352,7 +8353,7 @@
         <v>9.0394242608827349E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15">
       <c r="A146" s="4" t="s">
         <v>103</v>
       </c>
@@ -8402,7 +8403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15">
       <c r="A147" s="1" t="s">
         <v>154</v>
       </c>
@@ -8452,7 +8453,7 @@
         <v>0.24652975256952908</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15">
       <c r="A148" s="1" t="s">
         <v>104</v>
       </c>
@@ -8502,7 +8503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15">
       <c r="A149" s="1" t="s">
         <v>173</v>
       </c>
@@ -8552,7 +8553,7 @@
         <v>0.11299280326103418</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15">
       <c r="A150" s="1" t="s">
         <v>105</v>
       </c>
@@ -8602,7 +8603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15">
       <c r="A151" s="1" t="s">
         <v>18</v>
       </c>
@@ -8652,7 +8653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15">
       <c r="A152" s="1" t="s">
         <v>106</v>
       </c>
@@ -8702,7 +8703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15">
       <c r="A153" s="4" t="s">
         <v>155</v>
       </c>
@@ -8752,7 +8753,7 @@
         <v>0.33897840978310251</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15">
       <c r="A154" s="1" t="s">
         <v>32</v>
       </c>
@@ -8802,7 +8803,7 @@
         <v>1.0230913359520368</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15">
       <c r="A155" s="1" t="s">
         <v>107</v>
       </c>
@@ -8852,7 +8853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15">
       <c r="A156" s="4" t="s">
         <v>108</v>
       </c>
@@ -8902,7 +8903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15">
       <c r="A157" s="4" t="s">
         <v>185</v>
       </c>
@@ -8952,7 +8953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15">
       <c r="A158" s="1" t="s">
         <v>152</v>
       </c>
@@ -9002,7 +9003,7 @@
         <v>0.49916847656249991</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15">
       <c r="A159" s="1" t="s">
         <v>164</v>
       </c>
@@ -9052,7 +9053,7 @@
         <v>0.16435316837968608</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15">
       <c r="A160" s="1" t="s">
         <v>109</v>
       </c>
@@ -9102,7 +9103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15">
       <c r="A161" s="1" t="s">
         <v>110</v>
       </c>
@@ -9152,7 +9153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15">
       <c r="A162" s="1" t="s">
         <v>111</v>
       </c>
@@ -9202,7 +9203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15">
       <c r="A163" s="1" t="s">
         <v>178</v>
       </c>
@@ -9252,7 +9253,7 @@
         <v>0.24958423828124995</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15">
       <c r="A164" s="1" t="s">
         <v>186</v>
       </c>
@@ -9302,7 +9303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15">
       <c r="A165" s="1" t="s">
         <v>71</v>
       </c>
@@ -9352,7 +9353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15">
       <c r="A166" s="1" t="s">
         <v>112</v>
       </c>
@@ -9402,7 +9403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15">
       <c r="A167" s="4" t="s">
         <v>64</v>
       </c>
@@ -9452,7 +9453,7 @@
         <v>0.5445474289772726</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15">
       <c r="A168" s="1" t="s">
         <v>67</v>
       </c>
@@ -9502,7 +9503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15">
       <c r="A169" s="1" t="s">
         <v>174</v>
       </c>
@@ -9552,7 +9553,7 @@
         <v>0.11299280326103418</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15">
       <c r="A170" s="1" t="s">
         <v>175</v>
       </c>
@@ -9602,7 +9603,7 @@
         <v>0.33897840978310251</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15">
       <c r="A171" s="1" t="s">
         <v>113</v>
       </c>
@@ -9652,7 +9653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15">
       <c r="A172" s="1" t="s">
         <v>114</v>
       </c>
@@ -9702,7 +9703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15">
       <c r="A173" s="1" t="s">
         <v>12</v>
       </c>
@@ -9752,7 +9753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15">
       <c r="A174" s="1" t="s">
         <v>115</v>
       </c>
@@ -9802,7 +9803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15">
       <c r="A175" s="1" t="s">
         <v>116</v>
       </c>
@@ -9852,7 +9853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15">
       <c r="A176" s="1" t="s">
         <v>117</v>
       </c>
@@ -9902,7 +9903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15">
       <c r="A177" s="1" t="s">
         <v>156</v>
       </c>
@@ -9952,7 +9953,7 @@
         <v>0.33897840978310251</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15">
       <c r="A178" s="1" t="s">
         <v>140</v>
       </c>
@@ -10002,7 +10003,7 @@
         <v>0.51154566797601841</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15">
       <c r="A179" s="1" t="s">
         <v>131</v>
       </c>
@@ -10052,7 +10053,7 @@
         <v>0.71616393516642574</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15">
       <c r="A180" s="1" t="s">
         <v>159</v>
       </c>
@@ -10102,7 +10103,7 @@
         <v>0.20461826719040738</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15">
       <c r="A181" s="1" t="s">
         <v>146</v>
       </c>
@@ -10152,7 +10153,7 @@
         <v>0.40923653438081475</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15">
       <c r="A182" s="1" t="s">
         <v>126</v>
       </c>
@@ -10202,7 +10203,7 @@
         <v>0.81847306876162951</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15">
       <c r="A183" s="1" t="s">
         <v>135</v>
       </c>
@@ -10252,7 +10253,7 @@
         <v>0.61385480157122208</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15">
       <c r="A184" s="1" t="s">
         <v>123</v>
       </c>
@@ -10302,7 +10303,7 @@
         <v>0.92078220235683317</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15">
       <c r="A185" s="1" t="s">
         <v>122</v>
       </c>
@@ -10352,7 +10353,7 @@
         <v>1.0230913359520368</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15">
       <c r="A186" s="1" t="s">
         <v>149</v>
       </c>
@@ -10402,7 +10403,7 @@
         <v>0.30692740078561104</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15">
       <c r="A187" s="1" t="s">
         <v>176</v>
       </c>
@@ -10416,10 +10417,10 @@
         <v>0</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>4.4009747329288299E-4</v>
       </c>
       <c r="F187">
-        <v>4.4009747329288332E-4</v>
+        <v>0</v>
       </c>
       <c r="G187">
         <v>0</v>
@@ -10437,11 +10438,11 @@
       </c>
       <c r="L187" s="8">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>0.11002436832322075</v>
       </c>
       <c r="M187" s="8">
         <f t="shared" si="22"/>
-        <v>0.11002436832322082</v>
+        <v>0</v>
       </c>
       <c r="N187" s="8">
         <f t="shared" si="23"/>
@@ -10452,7 +10453,7 @@
         <v>0.11299280326103418</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15">
       <c r="A188" s="1" t="s">
         <v>165</v>
       </c>
@@ -10502,7 +10503,7 @@
         <v>0.22598560652206837</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15">
       <c r="A189" s="1" t="s">
         <v>150</v>
       </c>
@@ -10552,7 +10553,7 @@
         <v>0.45197121304413673</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15">
       <c r="A190" s="1" t="s">
         <v>157</v>
       </c>
@@ -10602,7 +10603,7 @@
         <v>0.33897840978310251</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15">
       <c r="A191" s="1" t="s">
         <v>151</v>
       </c>
@@ -10652,7 +10653,7 @@
         <v>0.45197121304413673</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15">
       <c r="A192" s="1" t="s">
         <v>147</v>
       </c>
@@ -10702,7 +10703,7 @@
         <v>0.5649640163051709</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15">
       <c r="A193" s="1" t="s">
         <v>177</v>
       </c>
@@ -10752,7 +10753,7 @@
         <v>0.11299280326103418</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15">
       <c r="A194" s="2" t="s">
         <v>72</v>
       </c>
@@ -10802,7 +10803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15">
       <c r="A195" s="2" t="s">
         <v>0</v>
       </c>
@@ -10859,7 +10860,7 @@
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A196:A65503 A1:A192">
+  <conditionalFormatting sqref="A1:A192 A196:A65503">
     <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>AND(COUNTIF($A$196:$A$65503, A1)+COUNTIF($A$1:$A$192, A1)&gt;1,NOT(ISBLANK(A1)))</formula>
     </cfRule>

--- a/src/datagen/resources/data/frostedheart/data/nutrition.xlsx
+++ b/src/datagen/resources/data/frostedheart/data/nutrition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wyc/Development/FrostedHeart/src/datagen/resources/data/frostedheart/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4C83CE-A72B-2D45-B4B3-2C5C57ECF7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C15C242-365B-BE4F-B5D1-8ADB4A5AF429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="25820" windowHeight="15500" xr2:uid="{E04DA74A-E851-4A2B-AFF2-C4A335E1AD4C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17980" xr2:uid="{E04DA74A-E851-4A2B-AFF2-C4A335E1AD4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="214">
   <si>
     <t>supplementaries:pancake</t>
   </si>
@@ -667,6 +667,30 @@
   <si>
     <t>frostedheart:rye_bread</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frostedheart:fox_meat</t>
+  </si>
+  <si>
+    <t>frostedheart:wolf_meat</t>
+  </si>
+  <si>
+    <t>frostedheart:polar_bear_meat</t>
+  </si>
+  <si>
+    <t>frostedheart:squid_tentacles</t>
+  </si>
+  <si>
+    <t>stone_age:cooked_fox_meat</t>
+  </si>
+  <si>
+    <t>stone_age:cooked_wolf_meat</t>
+  </si>
+  <si>
+    <t>stone_age:cooked_polar_bear_meat</t>
+  </si>
+  <si>
+    <t>stone_age:cooked_squid_tentacles</t>
   </si>
 </sst>
 </file>
@@ -1098,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9449E8F2-0FFB-4699-9EC1-364C1E3FECDC}">
-  <dimension ref="A1:O195"/>
+  <dimension ref="A1:O203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G187" sqref="G187"/>
+    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="121" zoomScaleNormal="121" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A205" sqref="A205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -10853,6 +10877,406 @@
         <v>0</v>
       </c>
     </row>
+    <row r="196" spans="1:15">
+      <c r="A196" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B196" s="3">
+        <v>1</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>4.4009747329288332E-4</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196">
+        <v>4.5197121304413671E-4</v>
+      </c>
+      <c r="J196" s="8">
+        <f t="shared" ref="J196" si="26">C196*10000/40</f>
+        <v>0</v>
+      </c>
+      <c r="K196" s="8">
+        <f t="shared" ref="K196" si="27">D196*10000/40</f>
+        <v>0</v>
+      </c>
+      <c r="L196" s="8">
+        <f t="shared" ref="L196" si="28">E196*10000/40</f>
+        <v>0</v>
+      </c>
+      <c r="M196" s="8">
+        <f t="shared" ref="M196" si="29">F196*10000/40</f>
+        <v>0.11002436832322082</v>
+      </c>
+      <c r="N196" s="8">
+        <f t="shared" ref="N196" si="30">G196*10000/40</f>
+        <v>0</v>
+      </c>
+      <c r="O196" s="8">
+        <f t="shared" ref="O196" si="31">H196*10000/40</f>
+        <v>0.11299280326103418</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15">
+      <c r="A197" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B197" s="3">
+        <v>1</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>4.4009747329288332E-4</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+      <c r="H197">
+        <v>4.5197121304413671E-4</v>
+      </c>
+      <c r="J197" s="8">
+        <f t="shared" ref="J197:J198" si="32">C197*10000/40</f>
+        <v>0</v>
+      </c>
+      <c r="K197" s="8">
+        <f t="shared" ref="K197:K198" si="33">D197*10000/40</f>
+        <v>0</v>
+      </c>
+      <c r="L197" s="8">
+        <f t="shared" ref="L197:L198" si="34">E197*10000/40</f>
+        <v>0</v>
+      </c>
+      <c r="M197" s="8">
+        <f t="shared" ref="M197:M198" si="35">F197*10000/40</f>
+        <v>0.11002436832322082</v>
+      </c>
+      <c r="N197" s="8">
+        <f t="shared" ref="N197:N198" si="36">G197*10000/40</f>
+        <v>0</v>
+      </c>
+      <c r="O197" s="8">
+        <f t="shared" ref="O197:O198" si="37">H197*10000/40</f>
+        <v>0.11299280326103418</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15">
+      <c r="A198" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B198" s="3">
+        <v>1</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>4.4009747329288332E-4</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <v>4.5197121304413671E-4</v>
+      </c>
+      <c r="J198" s="8">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="K198" s="8">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="L198" s="8">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="M198" s="8">
+        <f t="shared" si="35"/>
+        <v>0.11002436832322082</v>
+      </c>
+      <c r="N198" s="8">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="O198" s="8">
+        <f t="shared" si="37"/>
+        <v>0.11299280326103418</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15">
+      <c r="A199" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B199" s="3">
+        <v>1</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>4.4009747329288332E-4</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <v>4.5197121304413671E-4</v>
+      </c>
+      <c r="J199" s="8">
+        <f t="shared" ref="J199:J203" si="38">C199*10000/40</f>
+        <v>0</v>
+      </c>
+      <c r="K199" s="8">
+        <f t="shared" ref="K199:K203" si="39">D199*10000/40</f>
+        <v>0</v>
+      </c>
+      <c r="L199" s="8">
+        <f t="shared" ref="L199:L203" si="40">E199*10000/40</f>
+        <v>0</v>
+      </c>
+      <c r="M199" s="8">
+        <f t="shared" ref="M199:M203" si="41">F199*10000/40</f>
+        <v>0.11002436832322082</v>
+      </c>
+      <c r="N199" s="8">
+        <f t="shared" ref="N199:N203" si="42">G199*10000/40</f>
+        <v>0</v>
+      </c>
+      <c r="O199" s="8">
+        <f t="shared" ref="O199:O203" si="43">H199*10000/40</f>
+        <v>0.11299280326103418</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15">
+      <c r="A200" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B200" s="3">
+        <v>3</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>1.7786039773006359E-3</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="H200">
+        <v>1.2277096031424442E-3</v>
+      </c>
+      <c r="J200" s="8">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="K200" s="8">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="L200" s="8">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="M200" s="8">
+        <f t="shared" si="41"/>
+        <v>0.44465099432515898</v>
+      </c>
+      <c r="N200" s="8">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="O200" s="8">
+        <f t="shared" si="43"/>
+        <v>0.30692740078561104</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15">
+      <c r="A201" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B201" s="3">
+        <v>3</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>1.7786039773006359E-3</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <v>1.2277096031424442E-3</v>
+      </c>
+      <c r="J201" s="8">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="K201" s="8">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="L201" s="8">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="M201" s="8">
+        <f t="shared" si="41"/>
+        <v>0.44465099432515898</v>
+      </c>
+      <c r="N201" s="8">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="O201" s="8">
+        <f t="shared" si="43"/>
+        <v>0.30692740078561104</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15">
+      <c r="A202" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B202" s="3">
+        <v>3</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <v>1.7786039773006359E-3</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+      <c r="H202">
+        <v>1.2277096031424442E-3</v>
+      </c>
+      <c r="J202" s="8">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="K202" s="8">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="L202" s="8">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="M202" s="8">
+        <f t="shared" si="41"/>
+        <v>0.44465099432515898</v>
+      </c>
+      <c r="N202" s="8">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="O202" s="8">
+        <f t="shared" si="43"/>
+        <v>0.30692740078561104</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15">
+      <c r="A203" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B203" s="3">
+        <v>3</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <v>1.7786039773006359E-3</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+      <c r="H203">
+        <v>1.2277096031424442E-3</v>
+      </c>
+      <c r="J203" s="8">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="K203" s="8">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="L203" s="8">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="M203" s="8">
+        <f t="shared" si="41"/>
+        <v>0.44465099432515898</v>
+      </c>
+      <c r="N203" s="8">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="O203" s="8">
+        <f t="shared" si="43"/>
+        <v>0.30692740078561104</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H192" xr:uid="{C2343BCC-C587-40B7-9FE8-E536580C939E}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H197">
@@ -10860,12 +11284,12 @@
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A192 A196:A65503">
+  <conditionalFormatting sqref="A1:A192 A200:A65503">
     <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>AND(COUNTIF($A$196:$A$65503, A1)+COUNTIF($A$1:$A$192, A1)&gt;1,NOT(ISBLANK(A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A193:A195">
+  <conditionalFormatting sqref="A193:A199">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>

--- a/src/datagen/resources/data/frostedheart/data/nutrition.xlsx
+++ b/src/datagen/resources/data/frostedheart/data/nutrition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wyc/Development/FrostedHeart/src/datagen/resources/data/frostedheart/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C15C242-365B-BE4F-B5D1-8ADB4A5AF429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E271EE67-0E8C-2543-A2EE-5794CCD16F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17980" xr2:uid="{E04DA74A-E851-4A2B-AFF2-C4A335E1AD4C}"/>
   </bookViews>
@@ -681,16 +681,16 @@
     <t>frostedheart:squid_tentacles</t>
   </si>
   <si>
-    <t>stone_age:cooked_fox_meat</t>
-  </si>
-  <si>
-    <t>stone_age:cooked_wolf_meat</t>
-  </si>
-  <si>
-    <t>stone_age:cooked_polar_bear_meat</t>
-  </si>
-  <si>
-    <t>stone_age:cooked_squid_tentacles</t>
+    <t>frostedheart:cooked_fox_meat</t>
+  </si>
+  <si>
+    <t>frostedheart:cooked_wolf_meat</t>
+  </si>
+  <si>
+    <t>frostedheart:cooked_polar_bear_meat</t>
+  </si>
+  <si>
+    <t>frostedheart:cooked_squid_tentacles</t>
   </si>
 </sst>
 </file>
@@ -1124,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9449E8F2-0FFB-4699-9EC1-364C1E3FECDC}">
   <dimension ref="A1:O203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="121" zoomScaleNormal="121" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A205" sqref="A205"/>
+    <sheetView tabSelected="1" topLeftCell="A186" zoomScale="177" zoomScaleNormal="121" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>

--- a/src/datagen/resources/data/frostedheart/data/nutrition.xlsx
+++ b/src/datagen/resources/data/frostedheart/data/nutrition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wyc/Development/FrostedHeart/src/datagen/resources/data/frostedheart/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E271EE67-0E8C-2543-A2EE-5794CCD16F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EEB3F3-6C98-024B-8B34-DD0F709D9897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17980" xr2:uid="{E04DA74A-E851-4A2B-AFF2-C4A335E1AD4C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="216">
   <si>
     <t>supplementaries:pancake</t>
   </si>
@@ -691,6 +691,12 @@
   </si>
   <si>
     <t>frostedheart:cooked_squid_tentacles</t>
+  </si>
+  <si>
+    <t>frostedheart:raw_whale_meat</t>
+  </si>
+  <si>
+    <t>frostedheart:cooked_whale_meat</t>
   </si>
 </sst>
 </file>
@@ -802,7 +808,31 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF9C0006"/>
+        <name val="宋体"/>
+        <charset val="254"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1122,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9449E8F2-0FFB-4699-9EC1-364C1E3FECDC}">
-  <dimension ref="A1:O203"/>
+  <dimension ref="A1:O205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" zoomScale="177" zoomScaleNormal="121" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A200" sqref="A200"/>
+    <sheetView tabSelected="1" topLeftCell="A180" zoomScale="138" zoomScaleNormal="177" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A207" sqref="A207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -10091,10 +10121,10 @@
         <v>0</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>1.1857359848670907E-3</v>
       </c>
       <c r="F180">
-        <v>1.1857359848670907E-3</v>
+        <v>0</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -10112,11 +10142,11 @@
       </c>
       <c r="L180" s="8">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>0.29643399621677269</v>
       </c>
       <c r="M180" s="8">
         <f t="shared" si="17"/>
-        <v>0.29643399621677269</v>
+        <v>0</v>
       </c>
       <c r="N180" s="8">
         <f t="shared" si="18"/>
@@ -11053,27 +11083,27 @@
         <v>4.5197121304413671E-4</v>
       </c>
       <c r="J199" s="8">
-        <f t="shared" ref="J199:J203" si="38">C199*10000/40</f>
+        <f t="shared" ref="J199:J204" si="38">C199*10000/40</f>
         <v>0</v>
       </c>
       <c r="K199" s="8">
-        <f t="shared" ref="K199:K203" si="39">D199*10000/40</f>
+        <f t="shared" ref="K199:K204" si="39">D199*10000/40</f>
         <v>0</v>
       </c>
       <c r="L199" s="8">
-        <f t="shared" ref="L199:L203" si="40">E199*10000/40</f>
+        <f t="shared" ref="L199:L204" si="40">E199*10000/40</f>
         <v>0</v>
       </c>
       <c r="M199" s="8">
-        <f t="shared" ref="M199:M203" si="41">F199*10000/40</f>
+        <f t="shared" ref="M199:M204" si="41">F199*10000/40</f>
         <v>0.11002436832322082</v>
       </c>
       <c r="N199" s="8">
-        <f t="shared" ref="N199:N203" si="42">G199*10000/40</f>
+        <f t="shared" ref="N199:N204" si="42">G199*10000/40</f>
         <v>0</v>
       </c>
       <c r="O199" s="8">
-        <f t="shared" ref="O199:O203" si="43">H199*10000/40</f>
+        <f t="shared" ref="O199:O204" si="43">H199*10000/40</f>
         <v>0.11299280326103418</v>
       </c>
     </row>
@@ -11274,6 +11304,106 @@
       </c>
       <c r="O203" s="8">
         <f t="shared" si="43"/>
+        <v>0.30692740078561104</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15">
+      <c r="A204" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B204" s="3">
+        <v>1</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="F204">
+        <v>4.4009747329288332E-4</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+      <c r="H204">
+        <v>4.5197121304413671E-4</v>
+      </c>
+      <c r="J204" s="8">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="K204" s="8">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="L204" s="8">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="M204" s="8">
+        <f t="shared" si="41"/>
+        <v>0.11002436832322082</v>
+      </c>
+      <c r="N204" s="8">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="O204" s="8">
+        <f t="shared" si="43"/>
+        <v>0.11299280326103418</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15">
+      <c r="A205" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B205" s="3">
+        <v>3</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <v>1.7786039773006359E-3</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+      <c r="H205">
+        <v>1.2277096031424442E-3</v>
+      </c>
+      <c r="J205" s="8">
+        <f t="shared" ref="J205" si="44">C205*10000/40</f>
+        <v>0</v>
+      </c>
+      <c r="K205" s="8">
+        <f t="shared" ref="K205" si="45">D205*10000/40</f>
+        <v>0</v>
+      </c>
+      <c r="L205" s="8">
+        <f t="shared" ref="L205" si="46">E205*10000/40</f>
+        <v>0</v>
+      </c>
+      <c r="M205" s="8">
+        <f t="shared" ref="M205" si="47">F205*10000/40</f>
+        <v>0.44465099432515898</v>
+      </c>
+      <c r="N205" s="8">
+        <f t="shared" ref="N205" si="48">G205*10000/40</f>
+        <v>0</v>
+      </c>
+      <c r="O205" s="8">
+        <f t="shared" ref="O205" si="49">H205*10000/40</f>
         <v>0.30692740078561104</v>
       </c>
     </row>
@@ -11284,13 +11414,16 @@
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A192 A200:A65503">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="A1:A192 A200:A203 A205:A65503">
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
       <formula>AND(COUNTIF($A$196:$A$65503, A1)+COUNTIF($A$1:$A$192, A1)&gt;1,NOT(ISBLANK(A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A193:A199">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A204">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
